--- a/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Provincia-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5341170666703871</v>
+        <v>-0.485518967413191</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.586141400445299</v>
+        <v>3.566543977152434</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.002623745568965</v>
+        <v>-0.8074307474207157</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2012226453686766</v>
+        <v>-0.1557547520452558</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.343054412348571</v>
+        <v>1.36540236635857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4988387072016259</v>
+        <v>-0.5026889825735721</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.067717160365383</v>
+        <v>7.553881287779199</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.70692948207684</v>
+        <v>10.76409866759162</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.342902616645567</v>
+        <v>4.390806008467653</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3.63261443191831</v>
+        <v>3.164444575357239</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25.92772865041143</v>
+        <v>26.82358434370155</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.637902182240818</v>
+        <v>6.607069063578656</v>
       </c>
     </row>
     <row r="7">
@@ -722,19 +722,19 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.242612816557315</v>
+        <v>2.418812151625979</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1994732605461833</v>
+        <v>0.2000405164225366</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.187168905147596</v>
+        <v>0.1861802714646711</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6764171060552224</v>
+        <v>0.8500236328413385</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05965261571252813</v>
+        <v>0.0162016499086572</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
     </row>
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.076144173296159</v>
+        <v>7.3082419272976</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.299723605749975</v>
+        <v>4.038073050718276</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.593969951256608</v>
+        <v>1.610677588977927</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.111963542872526</v>
+        <v>7.385796902327701</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.603040288691878</v>
+        <v>6.313625833807079</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
     </row>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.028794833876848</v>
+        <v>4.734023883693683</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.219765080608063</v>
+        <v>3.346534438120285</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.776476608733558</v>
+        <v>3.649616344753084</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>2.991579825218303</v>
+        <v>2.369771057219676</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.393905815837716</v>
+        <v>1.328548951594772</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
     </row>
@@ -824,17 +824,17 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.04757289351867</v>
+        <v>10.96897380747457</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.136037184576525</v>
+        <v>9.449440824472942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.911516509314749</v>
+        <v>8.811454762309992</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="n">
-        <v>27.87024312393419</v>
+        <v>32.42847898918634</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
     </row>
@@ -876,20 +876,20 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.715944067452785</v>
+        <v>2.740733753361647</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.946802471813109</v>
+        <v>1.753649830879277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3974689989931806</v>
+        <v>0.4094321079220168</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.6822863612070393</v>
+        <v>0.5920902350066526</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.238622090468895</v>
+        <v>-0.1362141340231077</v>
       </c>
     </row>
     <row r="15">
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.828486175067937</v>
+        <v>9.040268775340031</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.75092069504946</v>
+        <v>5.910018947114911</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.647575168165855</v>
+        <v>3.94241190198222</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9.559799777980675</v>
+        <v>9.444202159651432</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8486328893629399</v>
+        <v>0.9197635392215454</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6937667299826182</v>
+        <v>-0.7870020371281283</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.294955283973064</v>
+        <v>-2.242313914959479</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.01684477178946897</v>
+        <v>-0.07077855662721733</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.859795210804553</v>
+        <v>10.39201855139731</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.381541318898575</v>
+        <v>3.913133027986955</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.825670564205536</v>
+        <v>1.540154764378562</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9.123354471804351</v>
+        <v>9.932217350408513</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -1026,17 +1026,17 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.135957577728357</v>
+        <v>8.032994465561627</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9606742484091259</v>
+        <v>1.054211115956078</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.830379995882235</v>
+        <v>-1.871555076433486</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
-        <v>0.113821533879542</v>
+        <v>0.1864745543582528</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
     </row>
@@ -1048,17 +1048,17 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.85794420013181</v>
+        <v>15.77074891492658</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.71953741127773</v>
+        <v>7.637719183055316</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.346651794913137</v>
+        <v>1.335136752275234</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>6.922049183214118</v>
+        <v>7.630654222121182</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
     </row>
@@ -1100,22 +1100,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.025600020864527</v>
+        <v>6.068616797914459</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.108861384271974</v>
+        <v>4.101839746451502</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5722798989610359</v>
+        <v>0.3575873597966412</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3.200198875300452</v>
+        <v>2.921902925380701</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.056740324944958</v>
+        <v>0.9198845736589946</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.135488286529281</v>
+        <v>0.07321551559631498</v>
       </c>
     </row>
     <row r="24">
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.69216373167926</v>
+        <v>10.74254364261109</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.048657951770249</v>
+        <v>9.590289981535296</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.625316401862134</v>
+        <v>3.416383381987284</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>45.09638496560567</v>
+        <v>42.01906061072874</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>6.834742393034421</v>
+        <v>6.628840143604171</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>6.928254111793535</v>
+        <v>6.709416323948943</v>
       </c>
     </row>
     <row r="25">
@@ -1182,22 +1182,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5223613046160575</v>
+        <v>0.5140690698288589</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.127879648732058</v>
+        <v>3.102961684294046</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.566070342809682</v>
+        <v>3.472400927392477</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1001628710806074</v>
+        <v>0.04366300466129528</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4352394919659541</v>
+        <v>0.3703110642248067</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.380404816370219</v>
+        <v>1.474303012897585</v>
       </c>
     </row>
     <row r="27">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.022519661212076</v>
+        <v>4.796182008543503</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.986152022367143</v>
+        <v>8.862747887103982</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.463429629904675</v>
+        <v>7.283081888070058</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.767884824052387</v>
+        <v>1.754894138593529</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.833893458193585</v>
+        <v>1.752807535532763</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8.204060551315917</v>
+        <v>7.381414131369385</v>
       </c>
     </row>
     <row r="28">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.769403931935353</v>
+        <v>4.814157683623267</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.89330508305506</v>
+        <v>3.924789090822673</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.949627542766491</v>
+        <v>1.899311791839556</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>2.000443859049671</v>
+        <v>1.993351683336052</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1.254662782519985</v>
+        <v>1.279298157129532</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.590302402549051</v>
+        <v>1.524425768829856</v>
       </c>
     </row>
     <row r="30">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.977726395359057</v>
+        <v>6.949710156518975</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.956288862975221</v>
+        <v>6.027052852051836</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.332137171405332</v>
+        <v>3.275572825074177</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4.318697073733399</v>
+        <v>4.195915535521812</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.755312330716358</v>
+        <v>2.848644577567059</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>4.617156777241086</v>
+        <v>4.651901967901122</v>
       </c>
     </row>
     <row r="31">
